--- a/data/2014_data.xlsx
+++ b/data/2014_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_83DEFCDF43B12BF1B8160B3E1B99F165502F64B2" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{50C9CA92-14C8-4DD8-9914-48894B54624C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="287">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,571 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Dark Horse</t>
   </si>
   <si>
+    <t>All Of Me</t>
+  </si>
+  <si>
+    <t>Fancy</t>
+  </si>
+  <si>
+    <t>Counting Stars</t>
+  </si>
+  <si>
+    <t>Talk Dirty</t>
+  </si>
+  <si>
+    <t>Rude</t>
+  </si>
+  <si>
+    <t>All About That Bass</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Stay With Me</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>Pompeii</t>
+  </si>
+  <si>
+    <t>Shake It Off</t>
+  </si>
+  <si>
+    <t>Am I Wrong</t>
+  </si>
+  <si>
+    <t>Turn Down For What</t>
+  </si>
+  <si>
+    <t>The Monster</t>
+  </si>
+  <si>
+    <t>Say Something</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Let Her Go</t>
+  </si>
+  <si>
+    <t>Royals</t>
+  </si>
+  <si>
+    <t>Let It Go</t>
+  </si>
+  <si>
+    <t>Wake Me Up!</t>
+  </si>
+  <si>
+    <t>Demons</t>
+  </si>
+  <si>
+    <t>Story Of My Life</t>
+  </si>
+  <si>
+    <t>Chandelier</t>
+  </si>
+  <si>
+    <t>Black Widow</t>
+  </si>
+  <si>
+    <t>Bang Bang</t>
+  </si>
+  <si>
+    <t>Latch</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Loyal</t>
+  </si>
+  <si>
+    <t>Best Day Of My Life</t>
+  </si>
+  <si>
+    <t>Habits (Stay High)</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Boom Clap</t>
+  </si>
+  <si>
+    <t>Drunk In Love</t>
+  </si>
+  <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
+    <t>Break Free</t>
+  </si>
+  <si>
+    <t>Bailando</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Wiggle</t>
+  </si>
+  <si>
+    <t>Rather Be</t>
+  </si>
+  <si>
+    <t>Don't Tell 'Em</t>
+  </si>
+  <si>
+    <t>Show Me</t>
+  </si>
+  <si>
+    <t>Wrecking Ball</t>
+  </si>
+  <si>
+    <t>Not A Bad Thing</t>
+  </si>
+  <si>
+    <t>Roar</t>
+  </si>
+  <si>
+    <t>Ain't It Fun</t>
+  </si>
+  <si>
+    <t>The Man</t>
+  </si>
+  <si>
+    <t>This Is How We Roll</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>A Sky Full Of Stars</t>
+  </si>
+  <si>
+    <t>Don't</t>
+  </si>
+  <si>
+    <t>Na Na</t>
+  </si>
+  <si>
+    <t>Hot Boy</t>
+  </si>
+  <si>
+    <t>Hold On, We're Going Home</t>
+  </si>
+  <si>
+    <t>Sing</t>
+  </si>
+  <si>
+    <t>Radioactive</t>
+  </si>
+  <si>
+    <t>My Hitta</t>
+  </si>
+  <si>
+    <t>Cool Kids</t>
+  </si>
+  <si>
+    <t>Hey Brother</t>
+  </si>
+  <si>
+    <t>Trumpets</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Burnin' It Down</t>
+  </si>
+  <si>
+    <t>Play It Again</t>
+  </si>
+  <si>
+    <t>2 On</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>Love Runs Out</t>
+  </si>
+  <si>
+    <t>Bottoms Up</t>
+  </si>
+  <si>
+    <t>Shower</t>
+  </si>
+  <si>
+    <t>Me And My Broken Heart</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>American Kids</t>
+  </si>
+  <si>
+    <t>Brave</t>
+  </si>
+  <si>
+    <t>Sweater Weather</t>
+  </si>
+  <si>
+    <t>Leave The Night On</t>
+  </si>
+  <si>
+    <t>New Flame</t>
+  </si>
+  <si>
+    <t>Love Never Felt So Good</t>
+  </si>
+  <si>
+    <t>Drunk On A Plane</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Bartender</t>
+  </si>
+  <si>
+    <t>La La La</t>
+  </si>
+  <si>
+    <t>Blurred Lines</t>
+  </si>
+  <si>
+    <t>Do What U Want</t>
+  </si>
+  <si>
+    <t>Can't Remember To Forget You</t>
+  </si>
+  <si>
+    <t>Amnesia</t>
+  </si>
+  <si>
+    <t>No Mediocre</t>
+  </si>
+  <si>
+    <t>Come With Me Now</t>
+  </si>
+  <si>
+    <t>Believe Me</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Beachin'</t>
+  </si>
+  <si>
+    <t>White Walls</t>
+  </si>
+  <si>
+    <t>She Looks So Perfect</t>
+  </si>
+  <si>
+    <t>Stay The Night</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>0 To 100 / The Catch Up</t>
+  </si>
+  <si>
+    <t>I Don't Dance</t>
+  </si>
+  <si>
+    <t>Somethin' Bad</t>
+  </si>
+  <si>
+    <t>Adore You</t>
+  </si>
+  <si>
     <t>Katy Perry Featuring Juicy J</t>
+  </si>
+  <si>
+    <t>John Legend</t>
+  </si>
+  <si>
+    <t>Iggy Azalea Featuring Charli XCX</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Jason Derulo Featuring 2 Chainz</t>
+  </si>
+  <si>
+    <t>MAGIC!</t>
+  </si>
+  <si>
+    <t>Meghan Trainor</t>
+  </si>
+  <si>
+    <t>Ariana Grande Featuring Iggy Azalea</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Pitbull Featuring Ke$ha</t>
+  </si>
+  <si>
+    <t>Bastille</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Nico &amp; Vinz</t>
+  </si>
+  <si>
+    <t>DJ Snake &amp; Lil Jon</t>
+  </si>
+  <si>
+    <t>Eminem Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>A Great Big World &amp; Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Lorde</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Idina Menzel</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>One Direction</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Iggy Azalea Featuring Rita Ora</t>
+  </si>
+  <si>
+    <t>Jessie J, Ariana Grande &amp; Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Disclosure Featuring Sam Smith</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Chris Brown Featuring Lil Wayne &amp; French Montana Or Too $hort Or Tyga</t>
+  </si>
+  <si>
+    <t>American Authors</t>
+  </si>
+  <si>
+    <t>Tove Lo</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Charli XCX</t>
+  </si>
+  <si>
+    <t>Beyonce Featuring Jay Z</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Ariana Grande Featuring Zedd</t>
+  </si>
+  <si>
+    <t>Enrique Iglesias Featuring Descemer Bueno &amp; Gente de Zona</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Jason Derulo Featuring Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Clean Bandit Featuring Jess Glynne</t>
+  </si>
+  <si>
+    <t>Jeremih Featuring YG</t>
+  </si>
+  <si>
+    <t>Kid Ink Featuring Chris Brown</t>
+  </si>
+  <si>
+    <t>Miley Cyrus</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Paramore</t>
+  </si>
+  <si>
+    <t>Aloe Blacc</t>
+  </si>
+  <si>
+    <t>Florida Georgia Line Featuring Luke Bryan</t>
+  </si>
+  <si>
+    <t>MKTO</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Trey Songz</t>
+  </si>
+  <si>
+    <t>Bobby Shmurda</t>
+  </si>
+  <si>
+    <t>Drake Featuring Majid Jordan</t>
+  </si>
+  <si>
+    <t>YG Featuring Jeezy &amp; Rich Homie Quan</t>
+  </si>
+  <si>
+    <t>Echosmith</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>Jason Aldean</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>Tinashe Featuring ScHoolboy Q</t>
+  </si>
+  <si>
+    <t>Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>Brantley Gilbert</t>
+  </si>
+  <si>
+    <t>Becky G</t>
+  </si>
+  <si>
+    <t>Rixton</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
+    <t>Rich Gang Featuring Young Thug &amp; Rich Homie Quan</t>
+  </si>
+  <si>
+    <t>Kenny Chesney</t>
+  </si>
+  <si>
+    <t>Sara Bareilles</t>
+  </si>
+  <si>
+    <t>The Neighbourhood</t>
+  </si>
+  <si>
+    <t>Sam Hunt</t>
+  </si>
+  <si>
+    <t>Chris Brown Featuring Usher &amp; Rick Ross</t>
+  </si>
+  <si>
+    <t>Michael Jackson &amp; Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Dierks Bentley</t>
+  </si>
+  <si>
+    <t>Lady Antebellum</t>
+  </si>
+  <si>
+    <t>Naughty Boy Featuring Sam Smith</t>
+  </si>
+  <si>
+    <t>Robin Thicke Featuring T.I. + Pharrell</t>
+  </si>
+  <si>
+    <t>Lady Gaga Featuring R. Kelly</t>
+  </si>
+  <si>
+    <t>Shakira Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>5 Seconds Of Summer</t>
+  </si>
+  <si>
+    <t>T.I. Featuring Iggy Azalea</t>
+  </si>
+  <si>
+    <t>KONGOS</t>
+  </si>
+  <si>
+    <t>Lil Wayne Featuring Drake</t>
+  </si>
+  <si>
+    <t>Mike WiLL Made-It Featuring Miley Cyrus, Wiz Khalifa &amp; Juicy J</t>
+  </si>
+  <si>
+    <t>Jake Owen</t>
+  </si>
+  <si>
+    <t>Macklemore &amp; Ryan Lewis Featuring ScHoolboy Q &amp; Hollis</t>
+  </si>
+  <si>
+    <t>Zedd Featuring Hayley Williams</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>ScHoolboy Q Featuring BJ The Chicago Kid</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Lee Brice</t>
+  </si>
+  <si>
+    <t>Miranda Lambert Duet With Carrie Underwood</t>
   </si>
   <si>
     <t>Yeah, y'all know what it is
@@ -98,12 +665,6 @@
 There's no going back</t>
   </si>
   <si>
-    <t>All Of Me</t>
-  </si>
-  <si>
-    <t>John Legend</t>
-  </si>
-  <si>
     <t>What would I do without your smart mouth
 Drawing me in, and you kicking me out?
 You've got my head spinning, no kiddingI can't pin you down
@@ -153,12 +714,6 @@
 And you give me all of you
 I give you all of me
 And you give me all of you, oh</t>
-  </si>
-  <si>
-    <t>Fancy</t>
-  </si>
-  <si>
-    <t>Iggy Azalea Featuring Charli XCX</t>
   </si>
   <si>
     <t>First thing first I'm the realest
@@ -232,12 +787,6 @@
 Who that, who that?
 I-G-G-Y
 Blow</t>
-  </si>
-  <si>
-    <t>Counting Stars</t>
-  </si>
-  <si>
-    <t>OneRepublic</t>
   </si>
   <si>
     <t>Lately, I've been, I've been losing sleep
@@ -322,12 +871,6 @@
 Sink in the river the lessons I've learned</t>
   </si>
   <si>
-    <t>Talk Dirty</t>
-  </si>
-  <si>
-    <t>Jason Derulo Featuring 2 Chainz</t>
-  </si>
-  <si>
     <t>Jason, haha
 Jason Derulo
 Haha, get Jazzy on 'emI'm that flight that you get on, international
@@ -383,12 +926,6 @@
 What? I don't understand</t>
   </si>
   <si>
-    <t>Rude</t>
-  </si>
-  <si>
-    <t>MAGIC!</t>
-  </si>
-  <si>
     <t>Saturday morning, jumped out of bed, and put on my best suit
 Got in my car, and raced like a jet, all the way to you
 Knocked on your door with heart in my hand to ask you a question'Cause I know that you're an old-fashioned man, yeah, yeah
@@ -434,12 +971,6 @@
 Why you gotta be so Rude?
 Why you gotta be so Rude?
 Why you gotta be so Rude?</t>
-  </si>
-  <si>
-    <t>All About That Bass</t>
-  </si>
-  <si>
-    <t>Meghan Trainor</t>
   </si>
   <si>
     <t>Because you know I'm all about that bass
@@ -508,12 +1039,6 @@
 'Bout that bass, 'bout that bass (Hey, hey)
 Hey, hey, ooh, ooh, ooh
 You know you love this bass, ayy</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Ariana Grande Featuring Iggy Azalea</t>
   </si>
   <si>
     <t>Uh huh!
@@ -629,12 +1154,6 @@
 I got one less, one less problem</t>
   </si>
   <si>
-    <t>Stay With Me</t>
-  </si>
-  <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
     <t>Guess it's true, I'm not good at a one night stand
 But I still need love 'cause I'm just a man
 These nights never seem to go to planI don't want you to leave will you hold my hand?
@@ -663,12 +1182,6 @@
 This ain't love its clear to see
 But darling
 Stay with me</t>
-  </si>
-  <si>
-    <t>Timber</t>
-  </si>
-  <si>
-    <t>Pitbull Featuring Ke$ha</t>
   </si>
   <si>
     <t>It's going down, I'm yelling timber
@@ -746,12 +1259,6 @@
 Oh-oh-oh-oh-oh-oh (Timber)</t>
   </si>
   <si>
-    <t>Pompeii</t>
-  </si>
-  <si>
-    <t>Bastille</t>
-  </si>
-  <si>
     <t>Eh-eh-oh, eh-oh
 Eh-eh-oh, eh-oh
 Eh-eh-oh, eh-ohEh-eh-oh, eh-oh
@@ -811,12 +1318,6 @@
 Eh-eh-oh, eh-oh
 Eh-eh-oh, eh-oh
 Eh-eh-oh, eh-oh</t>
-  </si>
-  <si>
-    <t>Shake It Off</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
   </si>
   <si>
     <t>I stay out too late
@@ -893,12 +1394,6 @@
 I, I, I shake it off, I shake it off</t>
   </si>
   <si>
-    <t>Am I Wrong</t>
-  </si>
-  <si>
-    <t>Nico &amp; Vinz</t>
-  </si>
-  <si>
     <t>Am I wrong?
 For thinking out the box from where I stay?
 Am I wrong?For saying that I choose another way?
@@ -963,18 +1458,6 @@
 That's just how I feel
 That's just how I feel
 Trying to reach the things that I can't see (See, see)</t>
-  </si>
-  <si>
-    <t>Turn Down For What</t>
-  </si>
-  <si>
-    <t>DJ Snake &amp; Lil Jon</t>
-  </si>
-  <si>
-    <t>The Monster</t>
-  </si>
-  <si>
-    <t>Eminem Featuring Rihanna</t>
   </si>
   <si>
     <t>I'm friends with the monster that's under my bed
@@ -1050,12 +1533,6 @@
 Well, that's nothing</t>
   </si>
   <si>
-    <t>Say Something</t>
-  </si>
-  <si>
-    <t>A Great Big World &amp; Christina Aguilera</t>
-  </si>
-  <si>
     <t>Say something, I'm giving up on you
 I'll be the one, if you want me to
 Anywhere, I would've followed youSay something, I'm giving up on you
@@ -1078,12 +1555,6 @@
 Say something, I'm giving up on you
 Say something, I'm giving up on you
 Say something</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Lorde</t>
   </si>
   <si>
     <t>Wait 'til you're announced
@@ -1155,12 +1626,6 @@
 And you know, and you know, and you know</t>
   </si>
   <si>
-    <t>Let Her Go</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
     <t>Well, you only need the light when it's burning low
 Only miss the sun when it starts to snow
 Only know you love her when you let her goOnly know you've been high when you're feeling low
@@ -1209,9 +1674,6 @@
 Only hate the road when you're missing home
 Only know you love her when you let her go
 And you let her go</t>
-  </si>
-  <si>
-    <t>Royals</t>
   </si>
   <si>
     <t>I've never seen a diamond in the flesh
@@ -1263,12 +1725,6 @@
 You can call me Queen Bee
 And baby I'll rule, I'll rule, I'll rule, I'll rule
 Let me live that fantasy</t>
-  </si>
-  <si>
-    <t>Let It Go</t>
-  </si>
-  <si>
-    <t>Idina Menzel</t>
   </si>
   <si>
     <t>Yes, the wind blows a little bit colder
@@ -1333,12 +1789,6 @@
 I'm holding on tight to you</t>
   </si>
   <si>
-    <t>Wake Me Up!</t>
-  </si>
-  <si>
-    <t>Avicii</t>
-  </si>
-  <si>
     <t>Feeling my way through the darkness
 Guided by a beating heart
 I can't tell where the journey will endBut I know where to start
@@ -1376,12 +1826,6 @@
 I didn't know, I didn't know, I didn't know</t>
   </si>
   <si>
-    <t>Demons</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
-  </si>
-  <si>
     <t>When the days are cold and the cards all fold
 And the saints we see are all made of gold
 When your dreams all fail and the ones we hailAre the worst of all and the blood's run stale
@@ -1413,12 +1857,6 @@
 It's where my demons hide, it's where my demons hide
 Don't get too close, it's dark inside
 It's where my demons hide, it's where my demons hide</t>
-  </si>
-  <si>
-    <t>Story Of My Life</t>
-  </si>
-  <si>
-    <t>One Direction</t>
   </si>
   <si>
     <t>Written in these walls are the stories that I can't explain
@@ -1460,12 +1898,6 @@
 The story of my life
 The story of my life (the story of, the story of)
 The story of my life</t>
-  </si>
-  <si>
-    <t>Chandelier</t>
-  </si>
-  <si>
-    <t>Sia</t>
   </si>
   <si>
     <t>Party girls don't get hurt
@@ -1526,12 +1958,6 @@
 On for tonight, on for tonight</t>
   </si>
   <si>
-    <t>Black Widow</t>
-  </si>
-  <si>
-    <t>Iggy Azalea Featuring Rita Ora</t>
-  </si>
-  <si>
     <t>I'm gonna love you, until you hate me
 Now I'm gonna show you, what's really crazy
 You shoulda known better, than to mess with me, honeyI'm gonna love you, I'm gonna love you
@@ -1588,12 +2014,6 @@
 Gonna love you, gonna love you
 Like a black widow, baby
 Bla-bla-black, black widow, baby</t>
-  </si>
-  <si>
-    <t>Bang Bang</t>
-  </si>
-  <si>
-    <t>Jessie J, Ariana Grande &amp; Nicki Minaj</t>
   </si>
   <si>
     <t>She got a body like an hourglass
@@ -1666,12 +2086,6 @@
 Wait a minute 'till ya</t>
   </si>
   <si>
-    <t>Latch</t>
-  </si>
-  <si>
-    <t>Disclosure Featuring Sam Smith</t>
-  </si>
-  <si>
     <t>Never
 You lift my heart up when the rest of me is down (never)
 You, you enchant me even when you're not around (never)If there are boundaries, I will try to knock them down (never)
@@ -1714,12 +2128,6 @@
 I won't let go of you
 I won't let go, I won't let go
 (I won't let go, I won't let go, never)</t>
-  </si>
-  <si>
-    <t>Maps</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
   </si>
   <si>
     <t>I miss the taste of a sweeter life
@@ -1793,18 +2201,6 @@
 Following, following, following</t>
   </si>
   <si>
-    <t>Loyal</t>
-  </si>
-  <si>
-    <t>Chris Brown Featuring Lil Wayne &amp; French Montana Or Too $hort Or Tyga</t>
-  </si>
-  <si>
-    <t>Best Day Of My Life</t>
-  </si>
-  <si>
-    <t>American Authors</t>
-  </si>
-  <si>
     <t>I had a dream so big and loud
 I jumped so high I touched the clouds
 Woah, oh, oh, oh, oh, oh-oh, ohWoah, oh, oh, oh, oh, oh-oh, oh
@@ -1848,12 +2244,6 @@
 Everything is looking up, everybody up now
 This is gonna be the best day of my life
 My life</t>
-  </si>
-  <si>
-    <t>Habits (Stay High)</t>
-  </si>
-  <si>
-    <t>Tove Lo</t>
   </si>
   <si>
     <t>Oh, oh
@@ -1927,12 +2317,6 @@
 Oh-oh</t>
   </si>
   <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Calvin Harris</t>
-  </si>
-  <si>
     <t>When I met you in the summer
 To my heartbeat's sound
 We fell in loveAs the leaves turned brown
@@ -1953,12 +2337,6 @@
 Summer
 When I met you in the summer
 Summer</t>
-  </si>
-  <si>
-    <t>Boom Clap</t>
-  </si>
-  <si>
-    <t>Charli XCX</t>
   </si>
   <si>
     <t>Boom, boom, boom, clap
@@ -2011,12 +2389,6 @@
 The beat goes on and on and on and on and
 Boom clap, you make me feel good
 Come on to me, come on to me now</t>
-  </si>
-  <si>
-    <t>Drunk In Love</t>
-  </si>
-  <si>
-    <t>Beyonce Featuring Jay Z</t>
   </si>
   <si>
     <t>I've been drinking, I've been drinking
@@ -2105,12 +2477,6 @@
 We be all night, love, love</t>
   </si>
   <si>
-    <t>Anaconda</t>
-  </si>
-  <si>
-    <t>Nicki Minaj</t>
-  </si>
-  <si>
     <t>My anaconda don't
 My anaconda don't
 My anaconda don't want noneUnless you got buns, hun
@@ -2194,12 +2560,6 @@
 Hey, hey, hey!</t>
   </si>
   <si>
-    <t>Break Free</t>
-  </si>
-  <si>
-    <t>Ariana Grande Featuring Zedd</t>
-  </si>
-  <si>
     <t>If you want it, take it
 I should have said it before
 Tried to hide it, fake itI can't pretend anymore
@@ -2247,12 +2607,6 @@
 I'm stronger than I've been before
 This is the part when I break free
 'Cause I can't resist it no more</t>
-  </si>
-  <si>
-    <t>Bailando</t>
-  </si>
-  <si>
-    <t>Enrique Iglesias Featuring Descemer Bueno &amp; Gente de Zona</t>
   </si>
   <si>
     <t>Yo quiero estar contigo, vivir contigo
@@ -2349,12 +2703,6 @@
 Oh oh oh oh</t>
   </si>
   <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
     <t>We, we don't have to worry about nothing
 'Cause we got the fire, and we're burning one hell of a something
 They, they gonna see us from outer space, outer spaceLight it up, like we're the stars of the human race, human race
@@ -2415,12 +2763,6 @@
 And we gonna let it burn</t>
   </si>
   <si>
-    <t>Wiggle</t>
-  </si>
-  <si>
-    <t>Jason Derulo Featuring Snoop Dogg</t>
-  </si>
-  <si>
     <t>Hey, yo, Jason (oh yeah)
 Say somethin' to her, holla at her
 Haha, I got one questionHaha, how do you fit, all that, in them jeans?
@@ -2479,12 +2821,6 @@
 Damn, baby, you got a bright future behind you</t>
   </si>
   <si>
-    <t>Rather Be</t>
-  </si>
-  <si>
-    <t>Clean Bandit Featuring Jess Glynne</t>
-  </si>
-  <si>
     <t>Oh, oh, oh
 We're a thousand miles from comfortWe have travelled land and sea
 But as long as you are with me
@@ -2541,12 +2877,6 @@
 No, no, no, no, no, no place I'd rather be
 No, no, no, no, no, no place I'd rather be
 When I am with you there's no place I'd rather be</t>
-  </si>
-  <si>
-    <t>Don't Tell 'Em</t>
-  </si>
-  <si>
-    <t>Jeremih Featuring YG</t>
   </si>
   <si>
     <t>Mustard on the beat, hoe
@@ -2639,12 +2969,6 @@
 Oh, oh, oh, oh, oh, oh, oh</t>
   </si>
   <si>
-    <t>Show Me</t>
-  </si>
-  <si>
-    <t>Kid Ink Featuring Chris Brown</t>
-  </si>
-  <si>
     <t>Baby
 Yeah
 Mustard on the beat hoeBaby let me put your panties to the side (Uh)
@@ -2728,12 +3052,6 @@
 Girl you gotta show me (Uh)</t>
   </si>
   <si>
-    <t>Wrecking Ball</t>
-  </si>
-  <si>
-    <t>Miley Cyrus</t>
-  </si>
-  <si>
     <t>We clawed, we chained our hearts in vain
 We jumped, never asking why
 We kissed, I fell under your spellA love no one could deny
@@ -2784,12 +3102,6 @@
 Yeah you, you wreck me</t>
   </si>
   <si>
-    <t>Not A Bad Thing</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
     <t>Said all I want from you
 Is to see you tomorrow
 And every tomorrowMaybe you'll let me borrow, your heart
@@ -2834,12 +3146,6 @@
 So don't act like it's a bad thing to fall in love with me, me
 It's not a bad thing to fall in love with me, me
 Not such a bad thing to fall in love with me</t>
-  </si>
-  <si>
-    <t>Roar</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
   </si>
   <si>
     <t>I used to bite my tongue and hold my breath
@@ -2898,12 +3204,6 @@
 You're gonna hear me roar
 (You'll hear me roar)
 You're gonna hear me roar</t>
-  </si>
-  <si>
-    <t>Ain't It Fun</t>
-  </si>
-  <si>
-    <t>Paramore</t>
   </si>
   <si>
     <t>I don't mind
@@ -2973,12 +3273,6 @@
 Don't go crying (You're on your own)
 Don't go crying (Don't go crying to your mama)
 Don't go crying</t>
-  </si>
-  <si>
-    <t>The Man</t>
-  </si>
-  <si>
-    <t>Aloe Blacc</t>
   </si>
   <si>
     <t>Well you can tell everybody
@@ -3054,12 +3348,6 @@
 I'm the man, I'm the man, I'm the man</t>
   </si>
   <si>
-    <t>This Is How We Roll</t>
-  </si>
-  <si>
-    <t>Florida Georgia Line Featuring Luke Bryan</t>
-  </si>
-  <si>
     <t>The mixtape's got a little Hank, little Drake
 A little somethin' bumpin' thump, thumpin' on the wheel ride
 The mix in our drink's a little stronger than you thinkSo get a grip, take a sip of that feel right
@@ -3108,12 +3396,6 @@
 We're burnin' down the night shootin' bullets at the moon baby
 This is how we roll-oh-oh-oh-oh-oh-oh-oh-oh
 Yeah this is how we roll-oh-oh-oh-oh-oh-oh-oh-oh</t>
-  </si>
-  <si>
-    <t>Classic</t>
-  </si>
-  <si>
-    <t>MKTO</t>
   </si>
   <si>
     <t>Hey, where's the drum?
@@ -3182,12 +3464,6 @@
 Ooh, classic</t>
   </si>
   <si>
-    <t>A Sky Full Of Stars</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
     <t>'Cause you're a sky, 'cause you're a sky full of stars
 I'm gonna give you my heart
 'Cause you're a sky, 'cause you're a sky full of stars'Cause you light up the path
@@ -3207,12 +3483,6 @@
 'Cause you're a sky, you're a sky full of stars
 Such a heavenly view
 You're such a heavenly view, yeah, yeah, yeah, yeah</t>
-  </si>
-  <si>
-    <t>Don't</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
   </si>
   <si>
     <t>Ah-lah-m-lah-lah
@@ -3306,12 +3576,6 @@
 Ah-lah-m-lah-lah</t>
   </si>
   <si>
-    <t>Na Na</t>
-  </si>
-  <si>
-    <t>Trey Songz</t>
-  </si>
-  <si>
     <t>Put your hands in the air, in the air
 Trigga
 Put your, put your hands in the air(Mustard on the beat, hoe)
@@ -3402,12 +3666,6 @@
 Na-na-na (Oh, na-na)</t>
   </si>
   <si>
-    <t>Hot Boy</t>
-  </si>
-  <si>
-    <t>Bobby Shmurda</t>
-  </si>
-  <si>
     <t>In Truey, I'm some hot nigga
 Like I talk to Shyste when I shot niggas
 Like you seen em twirl then he drop, niggaAnd We Keep them 9 milli's on my block, nigga
@@ -3456,12 +3714,6 @@
 Niggas got me on that young shit
 Got me on that go dumb shit
 Doodoo stain gang</t>
-  </si>
-  <si>
-    <t>Hold On, We're Going Home</t>
-  </si>
-  <si>
-    <t>Drake Featuring Majid Jordan</t>
   </si>
   <si>
     <t>I got my eyes on you
@@ -3517,9 +3769,6 @@
 It's hard to do these things alone (things alone)
 Just hold on we're going home
 (Goin' home)</t>
-  </si>
-  <si>
-    <t>Sing</t>
   </si>
   <si>
     <t>It's late in the evening
@@ -3619,9 +3868,6 @@
 Sing!</t>
   </si>
   <si>
-    <t>Radioactive</t>
-  </si>
-  <si>
     <t>I'm waking up to ash and dust
 I wipe my brow, and I sweat my rust
 I'm breathing in the chemicalsI'm breaking in and shaping up
@@ -3675,18 +3921,6 @@
 Radioactive, radioactive</t>
   </si>
   <si>
-    <t>My Hitta</t>
-  </si>
-  <si>
-    <t>YG Featuring Jeezy &amp; Rich Homie Quan</t>
-  </si>
-  <si>
-    <t>Cool Kids</t>
-  </si>
-  <si>
-    <t>Echosmith</t>
-  </si>
-  <si>
     <t>She says I'm walking in a straight line
 That's not really her style
 And they've all got the same heartbeatBut hers is falling behind
@@ -3731,9 +3965,6 @@
 Like the cool kids</t>
   </si>
   <si>
-    <t>Hey Brother</t>
-  </si>
-  <si>
     <t>Hey, brother
 There's an endless road to rediscover
 Hey, sisterKnow the water's sweet but blood is thicker
@@ -3763,12 +3994,6 @@
 Oh, sister I will help you out
 Oh, if the sky comes falling down for you
 There's nothing in this world I wouldn't do</t>
-  </si>
-  <si>
-    <t>Trumpets</t>
-  </si>
-  <si>
-    <t>Jason Derulo</t>
   </si>
   <si>
     <t>Every time that you get undressed
@@ -3827,9 +4052,6 @@
 They go, oh-oh, oh-yeah
 Uh come on, come on, come on
 They go</t>
-  </si>
-  <si>
-    <t>Animals</t>
   </si>
   <si>
     <t>Baby, I'm preying on you tonight
@@ -3918,12 +4140,6 @@
 Yeah, yeah, yeah</t>
   </si>
   <si>
-    <t>Burnin' It Down</t>
-  </si>
-  <si>
-    <t>Jason Aldean</t>
-  </si>
-  <si>
     <t>You slip your finger through the tear in my t-shirt
 You stirrin' up dirty in the back of my mind
 You keep on flirtin' cause you know that it's workin'You stuck in my head girl writing the lines
@@ -3991,12 +4207,6 @@
 Just to feel your heartbeat against me.</t>
   </si>
   <si>
-    <t>Play It Again</t>
-  </si>
-  <si>
-    <t>Luke Bryan</t>
-  </si>
-  <si>
     <t>She was sittin' all alone over on the tailgate
 Tan legs swingin' by a Georgia plate
 I was lookin' for her boyfriendThinkin', "No way she ain't got one"
@@ -4042,12 +4252,6 @@
 And I said, "Play it again, play it again, play it again"
 Yeah, play it again, play it again, play it again
 Somebody, play it again, play it again, play it again</t>
-  </si>
-  <si>
-    <t>2 On</t>
-  </si>
-  <si>
-    <t>Tinashe Featuring ScHoolboy Q</t>
   </si>
   <si>
     <t>Give me all that you got now
@@ -4131,12 +4335,6 @@
 Let-let-let's roll</t>
   </si>
   <si>
-    <t>Dirt</t>
-  </si>
-  <si>
-    <t>Florida Georgia Line</t>
-  </si>
-  <si>
     <t>You get your hands in it
 Plant your roots in it
 Dusty headlight dance with your boots in it(Dirt)
@@ -4190,9 +4388,6 @@
 And some day you'll return to it</t>
   </si>
   <si>
-    <t>Love Runs Out</t>
-  </si>
-  <si>
     <t>I'll be your light, your match, your burning sun
 I'll be the bright in black that's makin' you run
 And we'll feel alright, and we'll feel alright'Cause we'll work it out, yeah, we'll work it out
@@ -4241,12 +4436,6 @@
 And we'll start a fire, and we'll shut it down
 'Til the love runs out, 'til the love runs out
 'Til the love runs out</t>
-  </si>
-  <si>
-    <t>Bottoms Up</t>
-  </si>
-  <si>
-    <t>Brantley Gilbert</t>
   </si>
   <si>
     <t>I see you and me riding like Bonnie and Clyde
@@ -4315,12 +4504,6 @@
 Get 'em up
 Tonight is bottoms up (Up, up)
 Get 'em up (Get 'em up)</t>
-  </si>
-  <si>
-    <t>Shower</t>
-  </si>
-  <si>
-    <t>Becky G</t>
   </si>
   <si>
     <t>I don't know, it's just something about ya
@@ -4398,12 +4581,6 @@
 La-da-dee, la-da-da, la-da-da</t>
   </si>
   <si>
-    <t>Me And My Broken Heart</t>
-  </si>
-  <si>
-    <t>Rixton</t>
-  </si>
-  <si>
     <t>All I need is a little love in my life
 All I need is a little love in the dark
 A little but I'm hoping it might kick startMe and my broken heart
@@ -4461,15 +4638,6 @@
 Hold me so I'm not falling apart
 A little but I'm hoping it might kick start
 Me and my broken heart</t>
-  </si>
-  <si>
-    <t>Martin Garrix</t>
-  </si>
-  <si>
-    <t>Lifestyle</t>
-  </si>
-  <si>
-    <t>Rich Gang Featuring Young Thug &amp; Rich Homie Quan</t>
   </si>
   <si>
     <t>London On Da Track bitch
@@ -4547,12 +4715,6 @@
 I do this for Ms. Gladys, boy - 100</t>
   </si>
   <si>
-    <t>American Kids</t>
-  </si>
-  <si>
-    <t>Kenny Chesney</t>
-  </si>
-  <si>
     <t>Doublewide Quick Stop midnight T-top
 Jack in her Cherry Coke town
 Momma and Daddy put their roots right here'Cause this is where the car broke down
@@ -4603,12 +4765,6 @@
 Makin' out on living room couches
 Blowin' that smoke on a Saturday night
 A little messed up, but we're all alright</t>
-  </si>
-  <si>
-    <t>Brave</t>
-  </si>
-  <si>
-    <t>Sara Bareilles</t>
   </si>
   <si>
     <t>You can be amazing
@@ -4673,12 +4829,6 @@
 I just wanna see you
 I just wanna see you
 I just wanna see you</t>
-  </si>
-  <si>
-    <t>Sweater Weather</t>
-  </si>
-  <si>
-    <t>The Neighbourhood</t>
   </si>
   <si>
     <t>All I am is a man
@@ -4746,12 +4896,6 @@
 The hand of my sweater</t>
   </si>
   <si>
-    <t>Leave The Night On</t>
-  </si>
-  <si>
-    <t>Sam Hunt</t>
-  </si>
-  <si>
     <t>They roll the sidewalks in this town
 All up after the sun goes down
 And say nothin' good happens hereWhen midnight rolls around
@@ -4796,18 +4940,6 @@
 We can leave the night on
 Buzzin' like a streetlight
 We can leave 'em on tonight</t>
-  </si>
-  <si>
-    <t>New Flame</t>
-  </si>
-  <si>
-    <t>Chris Brown Featuring Usher &amp; Rick Ross</t>
-  </si>
-  <si>
-    <t>Love Never Felt So Good</t>
-  </si>
-  <si>
-    <t>Michael Jackson &amp; Justin Timberlake</t>
   </si>
   <si>
     <t>Dancing
@@ -4861,12 +4993,6 @@
 Tell me, if you really love me
 It's in and out of my life, in out baby
 So baby, love never felt so good</t>
-  </si>
-  <si>
-    <t>Drunk On A Plane</t>
-  </si>
-  <si>
-    <t>Dierks Bentley</t>
   </si>
   <si>
     <t>I took two weeks vacation for the honey moon
@@ -4925,9 +5051,6 @@
 I might be passed out
 In the baggage claim
 But right now, I'm drunk on a plane</t>
-  </si>
-  <si>
-    <t>Birthday</t>
   </si>
   <si>
     <t>I heard you're feeling nothing's going right
@@ -4995,12 +5118,6 @@
 Happy birthday</t>
   </si>
   <si>
-    <t>Bartender</t>
-  </si>
-  <si>
-    <t>Lady Antebellum</t>
-  </si>
-  <si>
     <t>8 o'clock on Friday night I'm still at home
 All my girls just keep on blowing up my phone
 Saying come on he ain't worth the painDo what you gotta do to forget his name
@@ -5055,12 +5172,6 @@
 Bring it 'til his memory fades away
 Hey bartender
 Hey bartender</t>
-  </si>
-  <si>
-    <t>La La La</t>
-  </si>
-  <si>
-    <t>Naughty Boy Featuring Sam Smith</t>
   </si>
   <si>
     <t>La la, la la la la la na na na na na,
@@ -5122,12 +5233,6 @@
 La la na na, la la la la la na na na na na
 La la na na, la la la la la na na na na na
 La la na na, la la la la la na na na na na</t>
-  </si>
-  <si>
-    <t>Blurred Lines</t>
-  </si>
-  <si>
-    <t>Robin Thicke Featuring T.I. + Pharrell</t>
   </si>
   <si>
     <t>Everybody, get up
@@ -5246,12 +5351,6 @@
 Hey, hey, hey</t>
   </si>
   <si>
-    <t>Do What U Want</t>
-  </si>
-  <si>
-    <t>Lady Gaga Featuring R. Kelly</t>
-  </si>
-  <si>
     <t>Yeah
 Turn the mic upI, I feel good, I walk alone
 But then I trip over myself, and I fall
@@ -5340,12 +5439,6 @@
 What you want with my body (world)</t>
   </si>
   <si>
-    <t>Can't Remember To Forget You</t>
-  </si>
-  <si>
-    <t>Shakira Featuring Rihanna</t>
-  </si>
-  <si>
     <t>I left a note on my bedpost
 Said not to repeat yesterday's mistakes
 What I tend to do when it comes to youI see only the good, selective memory
@@ -5406,12 +5499,6 @@
 I can't remember to forget you</t>
   </si>
   <si>
-    <t>Amnesia</t>
-  </si>
-  <si>
-    <t>5 Seconds Of Summer</t>
-  </si>
-  <si>
     <t>I drove by all the places we used to hang out getting wasted
 I thought about our last kiss
 How it felt, the way you tastedAnd even though your friends tell me you're doing fine
@@ -5467,12 +5554,6 @@
 No, I'm really not fine at all
 Tell me this is just a dream
 'Cause I'm really not fine at all</t>
-  </si>
-  <si>
-    <t>No Mediocre</t>
-  </si>
-  <si>
-    <t>T.I. Featuring Iggy Azalea</t>
   </si>
   <si>
     <t>All I fuck is bad bitches
@@ -5582,12 +5663,6 @@
 They so far from mediocre, yeah</t>
   </si>
   <si>
-    <t>Come With Me Now</t>
-  </si>
-  <si>
-    <t>KONGOS</t>
-  </si>
-  <si>
     <t>Come with me now
 Come with me now
 Woah, Come with me nowI'm gon' take you down
@@ -5643,12 +5718,6 @@
 Woah, Come with me now
 I'm gon' take you down
 Woah, Come with me now</t>
-  </si>
-  <si>
-    <t>Believe Me</t>
-  </si>
-  <si>
-    <t>Lil Wayne Featuring Drake</t>
   </si>
   <si>
     <t>Yeah, I'm the only one that get the job done
@@ -5757,12 +5826,6 @@
 Gone</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Mike WiLL Made-It Featuring Miley Cyrus, Wiz Khalifa &amp; Juicy J</t>
-  </si>
-  <si>
     <t>Ah-ha
 I'm so phresh, man
 Man, y'all scared to do it how I do itI'm in the club, high on purp with some shades on
@@ -5852,12 +5915,6 @@
 So get like me (hm-mm)</t>
   </si>
   <si>
-    <t>Beachin'</t>
-  </si>
-  <si>
-    <t>Jake Owen</t>
-  </si>
-  <si>
     <t>So just watchin' her blonde hair, sun burnt, stare at them, white caps rolling over
 Laid back in a thrift store beach chair, droppin' limes in a na
 Well, she looks back, yeah, she throws me a kiss, like "Honey, I sure want you."And it's a hundred and three between her and me and only 92 in Daytona
@@ -5881,12 +5938,6 @@
 Beachin'
 Sunshine, blue eyes, tan lines, slow tide rollin'
 White sand, cold can, koozie in my hand</t>
-  </si>
-  <si>
-    <t>White Walls</t>
-  </si>
-  <si>
-    <t>Macklemore &amp; Ryan Lewis Featuring ScHoolboy Q &amp; Hollis</t>
   </si>
   <si>
     <t>I wanna be free, I wanna just live
@@ -5968,9 +6019,6 @@
 I shine, the city never looked so, looked so bright</t>
   </si>
   <si>
-    <t>She Looks So Perfect</t>
-  </si>
-  <si>
     <t>Hey-hey, hey-hey
 Hey-hey, hey
 Hey-hey, hey-heyHey-hey, hey
@@ -6023,12 +6071,6 @@
 (Hey-hey!)</t>
   </si>
   <si>
-    <t>Stay The Night</t>
-  </si>
-  <si>
-    <t>Zedd Featuring Hayley Williams</t>
-  </si>
-  <si>
     <t>I know that we are upside down
 So hold your tongue and hear me out
 I know that we were made to breakSo what? I don't mind
@@ -6073,12 +6115,6 @@
 Are you gonna stay the night?
 Oh, oh, oh, oh
 Are you gonna stay the night?</t>
-  </si>
-  <si>
-    <t>Partition</t>
-  </si>
-  <si>
-    <t>Beyonce</t>
   </si>
   <si>
     <t>Let me hear you say, "Hey, Ms. Carter!" (Hey, Ms. Carter!)
@@ -6182,12 +6218,6 @@
 Hello</t>
   </si>
   <si>
-    <t>Studio</t>
-  </si>
-  <si>
-    <t>ScHoolboy Q Featuring BJ The Chicago Kid</t>
-  </si>
-  <si>
     <t>I'm just sittin' in the studio just tryna get to you, baby
 But this song so fuckin' dope, girl, it's harder not for me to blaze it
 To tell the truth, wish it was you in this booth that I was blazin'So I'm just sittin' in the studio just tryna get to you, baby
@@ -6229,12 +6259,6 @@
 But this song so fuckin' dope, girl, it's harder not for me to blaze it
 To tell the truth, wish it was you in this booth that I was blazin'
 So I'm just sittin' in the studio just tryna get to you, baby</t>
-  </si>
-  <si>
-    <t>0 To 100 / The Catch Up</t>
-  </si>
-  <si>
-    <t>Drake</t>
   </si>
   <si>
     <t>Fuck bein' on some chill shit
@@ -6349,12 +6373,6 @@
 Could it be the way that I'll catch up</t>
   </si>
   <si>
-    <t>I Don't Dance</t>
-  </si>
-  <si>
-    <t>Lee Brice</t>
-  </si>
-  <si>
     <t>I'll never settle down
 That's what I always thought
 Yeah, I was that kind of manJust ask anyone
@@ -6386,12 +6404,6 @@
 Yeah, you got me in the palm of your hand, girl
 'Cause, I don't dance
 Ou. No. Whoou oou oou ou</t>
-  </si>
-  <si>
-    <t>Somethin' Bad</t>
-  </si>
-  <si>
-    <t>Miranda Lambert Duet With Carrie Underwood</t>
   </si>
   <si>
     <t>Stand on the bar, stomp your feet, start clapping
@@ -6433,9 +6445,6 @@
 Whoa... Something bad</t>
   </si>
   <si>
-    <t>Adore You</t>
-  </si>
-  <si>
     <t>Uh, uh
 Hey, uh, oh
 Baby, baby, are you listenin'?Wonderin' where you've been all my life
@@ -6474,16 +6483,112 @@
 Boy, I adore you
 I adore you</t>
   </si>
+  <si>
+    <t>Young Mula, baby!
+I wasn't born last night
+I know these hoes ain't right
+But you was blowing up her phone last night
+But she ain't have her ringer nor her ring on last night, oh
+Nigga, that's that nerve
+Why give a bitch your heart
+When she rather have a purse?
+Why give a bitch your inch
+When she rather have nine?
+You know how the game goes
+She be mine 'bout half time, I'm the shit, oh
+Nigga, that's that nerve
+You all about her, and she all about hers
+Birdman Junior in this bitch, no flamingos
+And I done did everything but trust these hoes (CB fuck with me!)
+When a rich nigga want you
+And your nigga can't do nothing for ya
+These hoes ain't loyal
+These hoes ain't loyal
+Yeah, yeah, let me see
+Just got rich
+Took a broke nigga bitch
+I can make a broke bitch rich
+But I don't fuck with broke bitches
+Got a white girl with some fake titties
+I took her to the bay with me
+Eyes closed smoking marijuana
+Rolling up that Bob Marley, I'm a rasta
+She wanna do drugs, smoke weed, get drunk
+She wanna see a nigga trapped
+She wanna fuck all the rappers
+When a rich nigga want you
+And your nigga can't do nothing for ya
+These hoes ain't loyal
+These hoes ain't loyal
+Yeah, yeah, let me see
+Black girl with a big booty
+If she a bad bitch, let's get to it (right away)
+We up in this club
+Bring me the bottles
+I know girl, that you came in this bitch with your man
+That's a no-no girl
+All this money in the air
+I wanna see you dance
+Just got rich
+Took a broke nigga bitch
+I can make a broke bitch rich
+But I don't fuck with broke bitches
+When a rich nigga want you
+And your nigga can't do nothing for ya
+These hoes ain't loyal
+These hoes ain't loyal
+Yeah, yeah, let me see
+A nigga fell in love
+Turn into a woosy
+24-7 he was eating that pussy
+But these hoes ain't faithful
+A nigga like me will have your bitch on tape though
+I been knowing not to trust these hoes
+I get bread, get head, and fuck these hoes
+In that order
+Don't switch it around
+Relationships change, it's so different now
+No high-school sweetheart
+These bitches pimpin'
+All these opinions
+Women on women
+Lickin' them titties
+Sex in the City
+Hella "Instagram likes" but you ain't pretty, bitch!
+Come on, come on, girl why you frontin'?
+Baby show me something
+When I call her, she gon' leave
+And I bet that bottom dollar she gon' cheat
+Come on, come on, girl why you frontin'?
+Baby show me something
+You don' spent bread on her
+And it's all for nothing
+When a rich nigga want you
+And your nigga can't do nothing for ya
+These hoes ain't loyal
+These hoes ain't loyal
+Yeah, yeah, let me see
+When I rich nigga want you (Want you babe)
+And your nigga can't do nothing for ya (Oh)
+Oh these hoes ain't loyal
+Whoa these hoes ain't loyal
+Yeah, yeah, let me see
+Yeah, let me see
+Yeah, let me see
+Let me see
+Oh these hoes ain't loyal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6491,8 +6596,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6504,7 +6616,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6512,24 +6624,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6571,7 +6709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6603,9 +6741,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6637,6 +6793,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6812,1099 +6986,1700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="C59" t="s">
         <v>156</v>
       </c>
-      <c r="B54" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>171</v>
+      <c r="D59" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
       <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s">
+        <v>259</v>
+      </c>
+      <c r="E73">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
+        <v>260</v>
+      </c>
+      <c r="E74">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" t="s">
+        <v>261</v>
+      </c>
+      <c r="E75">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="D78" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
         <v>173</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D79" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" t="s">
+        <v>265</v>
+      </c>
+      <c r="E80">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
         <v>174</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="D82" t="s">
+        <v>267</v>
+      </c>
+      <c r="E82">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
         <v>176</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D83" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" t="s">
+        <v>269</v>
+      </c>
+      <c r="E84">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="C62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
         <v>178</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
         <v>179</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D86" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="D87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E87">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
         <v>181</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D88" t="s">
+        <v>273</v>
+      </c>
+      <c r="E88">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
         <v>182</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D89" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D90" t="s">
+        <v>275</v>
+      </c>
+      <c r="E90">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
         <v>184</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E91">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
         <v>185</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D92" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" t="s">
+        <v>278</v>
+      </c>
+      <c r="E93">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="D94" t="s">
+        <v>279</v>
+      </c>
+      <c r="E94">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
         <v>187</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D95" t="s">
+        <v>280</v>
+      </c>
+      <c r="E95">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
         <v>188</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D96" t="s">
+        <v>281</v>
+      </c>
+      <c r="E96">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="D97" t="s">
+        <v>282</v>
+      </c>
+      <c r="E97">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
         <v>190</v>
       </c>
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D98" t="s">
+        <v>283</v>
+      </c>
+      <c r="E98">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>202</v>
-      </c>
-      <c r="B72" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>211</v>
-      </c>
-      <c r="B75" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>217</v>
-      </c>
-      <c r="B77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>219</v>
-      </c>
-      <c r="B78" t="s">
-        <v>220</v>
-      </c>
-      <c r="C78" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" t="s">
-        <v>223</v>
-      </c>
-      <c r="C79" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>225</v>
-      </c>
-      <c r="B80" t="s">
-        <v>133</v>
-      </c>
-      <c r="C80" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>227</v>
-      </c>
-      <c r="B81" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>230</v>
-      </c>
-      <c r="B82" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" t="s">
-        <v>237</v>
-      </c>
-      <c r="C84" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>239</v>
-      </c>
-      <c r="B85" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>242</v>
-      </c>
-      <c r="B86" t="s">
-        <v>243</v>
-      </c>
-      <c r="C86" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>245</v>
-      </c>
-      <c r="B87" t="s">
-        <v>246</v>
-      </c>
-      <c r="C87" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>248</v>
-      </c>
-      <c r="B88" t="s">
-        <v>249</v>
-      </c>
-      <c r="C88" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>251</v>
-      </c>
-      <c r="B89" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>254</v>
-      </c>
-      <c r="B90" t="s">
-        <v>255</v>
-      </c>
-      <c r="C90" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>257</v>
-      </c>
-      <c r="B91" t="s">
-        <v>258</v>
-      </c>
-      <c r="C91" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>260</v>
-      </c>
-      <c r="B92" t="s">
-        <v>261</v>
-      </c>
-      <c r="C92" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>263</v>
-      </c>
-      <c r="B93" t="s">
-        <v>243</v>
-      </c>
-      <c r="C93" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>265</v>
-      </c>
-      <c r="B94" t="s">
-        <v>266</v>
-      </c>
-      <c r="C94" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>268</v>
-      </c>
-      <c r="B95" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>271</v>
-      </c>
-      <c r="B96" t="s">
-        <v>272</v>
-      </c>
-      <c r="C96" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>274</v>
-      </c>
-      <c r="B97" t="s">
-        <v>275</v>
-      </c>
-      <c r="C97" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>277</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="D99" t="s">
+        <v>284</v>
+      </c>
+      <c r="E99">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" t="s">
+        <v>285</v>
+      </c>
+      <c r="E100">
         <v>278</v>
       </c>
-      <c r="C98" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>280</v>
-      </c>
-      <c r="B99" t="s">
-        <v>281</v>
-      </c>
-      <c r="C99" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>283</v>
-      </c>
-      <c r="B100" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" t="s">
-        <v>284</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>